--- a/02 Selection/Diccionario de datos_Select.xlsx
+++ b/02 Selection/Diccionario de datos_Select.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27757d852a2d8b79/Investigación/Revisión sistemática/05 Selección/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27757d852a2d8b79/Investigación/Revisión sistemática/05 Repository/02 Selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{B5C5954F-2773-49B6-A652-945471D51BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82AC3728-D2C7-42F8-B1F5-9D01C87BAF39}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{B5C5954F-2773-49B6-A652-945471D51BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A24A5A4-BDF6-44EE-902F-43934D6F8559}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="1935" windowWidth="16695" windowHeight="7230" firstSheet="1" activeTab="1" xr2:uid="{CC64685B-F40F-491D-BF74-305353C9D56D}"/>
+    <workbookView xWindow="-20610" yWindow="4965" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{CC64685B-F40F-491D-BF74-305353C9D56D}"/>
   </bookViews>
   <sheets>
     <sheet name="Extracción de la información" sheetId="1" r:id="rId1"/>
@@ -1923,12 +1923,6 @@
     <t>or_rr_ajustado</t>
   </si>
   <si>
-    <t>Si (solo por edad)</t>
-  </si>
-  <si>
-    <t>No (ajustado por otras variables aparte de la edad)</t>
-  </si>
-  <si>
     <t>052</t>
   </si>
   <si>
@@ -1954,6 +1948,12 @@
   </si>
   <si>
     <t>¿El tamaño del efecto fue ajustado por otra variable además de la edad?</t>
+  </si>
+  <si>
+    <t>No (solo por edad)</t>
+  </si>
+  <si>
+    <t>Si (ajustado por otras variables aparte de la edad)</t>
   </si>
 </sst>
 </file>
@@ -2229,6 +2229,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2250,7 +2251,6 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4123,8 +4123,8 @@
   <dimension ref="A1:AO125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D122" sqref="D122:D124"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4615,16 +4615,16 @@
       <c r="AO8" s="7"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="12"/>
@@ -6567,20 +6567,20 @@
       <c r="AO50" s="7"/>
     </row>
     <row r="51" spans="1:41" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="45"/>
     </row>
     <row r="52" spans="1:41" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
@@ -7114,20 +7114,20 @@
       </c>
     </row>
     <row r="91" spans="1:12" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="45" t="s">
+      <c r="A91" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="B91" s="46"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="46"/>
-      <c r="H91" s="46"/>
-      <c r="I91" s="46"/>
-      <c r="J91" s="46"/>
-      <c r="K91" s="46"/>
-      <c r="L91" s="47"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="48"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
@@ -7449,7 +7449,7 @@
       <c r="C104" t="s">
         <v>576</v>
       </c>
-      <c r="D104" s="48" t="s">
+      <c r="D104" s="41" t="s">
         <v>577</v>
       </c>
       <c r="E104" t="s">
@@ -7680,7 +7680,7 @@
         <v>607</v>
       </c>
       <c r="D114" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E114" t="s">
         <v>608</v>
@@ -7727,7 +7727,7 @@
         <v>613</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E118" t="s">
         <v>394</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D119" s="33" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -7749,7 +7749,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D120" s="33" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -7757,16 +7757,16 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="B121" t="s">
+        <v>615</v>
+      </c>
+      <c r="C121" t="s">
         <v>616</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" s="31" t="s">
         <v>617</v>
-      </c>
-      <c r="C121" t="s">
-        <v>618</v>
-      </c>
-      <c r="D121" s="31" t="s">
-        <v>619</v>
       </c>
       <c r="E121" t="s">
         <v>408</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D122" s="33" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -7785,7 +7785,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D123" s="33" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D124" s="33" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G124">
         <v>3</v>
